--- a/data/trans_bre/P68-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P68-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 9,95</t>
+          <t>-3,13; 10,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 12,51</t>
+          <t>-3,1; 12,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 12,57</t>
+          <t>-2,97; 12,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,49</t>
+          <t>0,28; 11,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 64,14</t>
+          <t>-15,18; 68,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 84,67</t>
+          <t>-16,17; 79,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 95,78</t>
+          <t>-15,56; 87,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 96,65</t>
+          <t>0,85; 110,47</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 9,0</t>
+          <t>-4,86; 8,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 10,56</t>
+          <t>-6,11; 9,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 10,03</t>
+          <t>-3,67; 9,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 5,78</t>
+          <t>-6,06; 6,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 74,1</t>
+          <t>-27,77; 71,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 98,89</t>
+          <t>-35,21; 85,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 104,27</t>
+          <t>-24,69; 103,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 43,4</t>
+          <t>-29,85; 49,96</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 15,54</t>
+          <t>-10,27; 14,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 12,17</t>
+          <t>-7,93; 12,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,3; -5,39</t>
+          <t>-25,81; -5,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 30,56</t>
+          <t>-1,31; 29,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 62,03</t>
+          <t>-36,27; 60,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 47,28</t>
+          <t>-26,01; 50,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-77,62; -17,74</t>
+          <t>-77,33; -17,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 701,15</t>
+          <t>-8,57; 699,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,42; -6,87</t>
+          <t>-17,58; -6,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 1,56</t>
+          <t>-11,83; 1,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 0,59</t>
+          <t>-11,53; 0,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 5,94</t>
+          <t>-4,09; 6,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,51; -25,13</t>
+          <t>-56,89; -25,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 6,16</t>
+          <t>-38,7; 7,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,23; 2,58</t>
+          <t>-36,9; 3,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 27,25</t>
+          <t>-14,89; 31,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 6,43</t>
+          <t>-13,6; 7,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 8,38</t>
+          <t>-11,65; 8,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -1,81</t>
+          <t>-20,4; -2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 29,72</t>
+          <t>-3,57; 30,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,19; 20,07</t>
+          <t>-34,41; 24,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 38,98</t>
+          <t>-36,9; 44,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,72; -5,81</t>
+          <t>-50,95; -6,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 146,84</t>
+          <t>-14,54; 155,07</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 0,1</t>
+          <t>-6,43; 0,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,47</t>
+          <t>-4,3; 2,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -0,17</t>
+          <t>-7,28; -0,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,3; 15,93</t>
+          <t>1,91; 15,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 0,43</t>
+          <t>-24,88; 1,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 15,64</t>
+          <t>-17,41; 12,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,29; -0,62</t>
+          <t>-27,43; -0,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,91; 125,58</t>
+          <t>9,8; 115,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P68-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P68-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
